--- a/doc/ue_physX.xlsx
+++ b/doc/ue_physX.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685A3215-76EE-4931-9B56-9265EEC245ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C3A960-B316-4BD5-9AE0-274A9981D69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="备注" sheetId="1" r:id="rId1"/>
-    <sheet name="加载" sheetId="3" r:id="rId2"/>
-    <sheet name="创建" sheetId="2" r:id="rId3"/>
-    <sheet name="射线查询" sheetId="4" r:id="rId4"/>
+    <sheet name="StaticMesh" sheetId="5" r:id="rId2"/>
+    <sheet name="加载" sheetId="3" r:id="rId3"/>
+    <sheet name="创建" sheetId="2" r:id="rId4"/>
+    <sheet name="射线查询" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="94">
   <si>
     <t>对象的物理信息涉及</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,111 +51,287 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>void UBodySetup::AddShapesToRigidActor_AssumesLocked(</t>
+  </si>
+  <si>
+    <t>FGeometryAddParams AddParams;</t>
+  </si>
+  <si>
+    <t>AddParams.bDoubleSided = bDoubleSidedGeometry;</t>
+  </si>
+  <si>
+    <t>AddParams.CollisionData = BodyCollisionData;</t>
+  </si>
+  <si>
+    <t>AddParams.CollisionTraceType = GetCollisionTraceFlag();</t>
+  </si>
+  <si>
+    <t>AddParams.Scale = Scale3D;</t>
+  </si>
+  <si>
+    <t>AddParams.SimpleMaterial = SimpleMaterial;</t>
+  </si>
+  <si>
+    <t>AddParams.ComplexMaterials = TArrayView&lt;UPhysicalMaterial*&gt;(ComplexMaterials);</t>
+  </si>
+  <si>
+    <t>#if WITH_CHAOS</t>
+  </si>
+  <si>
+    <t>AddParams.ComplexMaterialMasks = TArrayView&lt;FPhysicalMaterialMaskParams&gt;(ComplexMaterialMasks);</t>
+  </si>
+  <si>
+    <t>#endif</t>
+  </si>
+  <si>
+    <t>AddParams.LocalTransform = RelativeTM;</t>
+  </si>
+  <si>
+    <t>AddParams.WorldTransform = OwningInstance-&gt;GetUnrealWorldTransform();</t>
+  </si>
+  <si>
+    <t>AddParams.Geometry = &amp;AggGeom;</t>
+  </si>
+  <si>
+    <t>#if PHYSICS_INTERFACE_PHYSX</t>
+  </si>
+  <si>
+    <t>AddParams.TriMeshes = TArrayView&lt;PxTriangleMesh*&gt;(TriMeshes);</t>
+  </si>
+  <si>
+    <t>AddParams.ChaosTriMeshes = MakeArrayView(ChaosTriMeshes);</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>SCOPE_CYCLE_COUNTER(STAT_AddGeomToSolver);</t>
+  </si>
+  <si>
+    <t>FPhysicsInterface::AddGeometry(OwningInstance-&gt;ActorHandle, AddParams, NewShapes);</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>设置PhyisX层数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！创建物理层的Shape对象，同时设置数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Grab actor/component</t>
+  </si>
+  <si>
+    <t>if( OwningComponent )</t>
+  </si>
+  <si>
+    <t>OutResult.Actor = OwningComponent-&gt;GetOwner();</t>
+  </si>
+  <si>
+    <t>OutResult.Component = OwningComponent;</t>
+  </si>
+  <si>
+    <t>if (bReturnPhysMat)</t>
+  </si>
+  <si>
+    <t>if (const FPhysicsMaterial* PhysicsMaterial = GetMaterialFromInternalFaceIndexAndHitLocation(Shape, Actor, FaceIndex, HitLocation))</t>
+  </si>
+  <si>
+    <t>OutResult.PhysMaterial = GetUserData(*PhysicsMaterial);</t>
+  </si>
+  <si>
+    <t>#else</t>
+  </si>
+  <si>
+    <t>if (const FPhysicsMaterial* PhysicsMaterial = GetMaterialFromInternalFaceIndex(Shape, Actor, FaceIndex))</t>
+  </si>
+  <si>
+    <t>需要计算出TriMeshes，分为编辑器和非编辑器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>void UBodySetup::CreatePhysicsMeshes()</t>
-  </si>
-  <si>
-    <t>void UBodySetup::AddShapesToRigidActor_AssumesLocked(</t>
-  </si>
-  <si>
-    <t>FGeometryAddParams AddParams;</t>
-  </si>
-  <si>
-    <t>AddParams.bDoubleSided = bDoubleSidedGeometry;</t>
-  </si>
-  <si>
-    <t>AddParams.CollisionData = BodyCollisionData;</t>
-  </si>
-  <si>
-    <t>AddParams.CollisionTraceType = GetCollisionTraceFlag();</t>
-  </si>
-  <si>
-    <t>AddParams.Scale = Scale3D;</t>
-  </si>
-  <si>
-    <t>AddParams.SimpleMaterial = SimpleMaterial;</t>
-  </si>
-  <si>
-    <t>AddParams.ComplexMaterials = TArrayView&lt;UPhysicalMaterial*&gt;(ComplexMaterials);</t>
-  </si>
-  <si>
-    <t>#if WITH_CHAOS</t>
-  </si>
-  <si>
-    <t>AddParams.ComplexMaterialMasks = TArrayView&lt;FPhysicalMaterialMaskParams&gt;(ComplexMaterialMasks);</t>
-  </si>
-  <si>
-    <t>#endif</t>
-  </si>
-  <si>
-    <t>AddParams.LocalTransform = RelativeTM;</t>
-  </si>
-  <si>
-    <t>AddParams.WorldTransform = OwningInstance-&gt;GetUnrealWorldTransform();</t>
-  </si>
-  <si>
-    <t>AddParams.Geometry = &amp;AggGeom;</t>
-  </si>
-  <si>
-    <t>#if PHYSICS_INTERFACE_PHYSX</t>
-  </si>
-  <si>
-    <t>AddParams.TriMeshes = TArrayView&lt;PxTriangleMesh*&gt;(TriMeshes);</t>
-  </si>
-  <si>
-    <t>AddParams.ChaosTriMeshes = MakeArrayView(ChaosTriMeshes);</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t>SCOPE_CYCLE_COUNTER(STAT_AddGeomToSolver);</t>
-  </si>
-  <si>
-    <t>FPhysicsInterface::AddGeometry(OwningInstance-&gt;ActorHandle, AddParams, NewShapes);</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>设置PhyisX层数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！创建物理层的Shape对象，同时设置数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UBodySetup::GetCookInfo(FCookBodySetupInfo&amp; OutCookInfo, EPhysXMeshCookFlags InCookFlags) const</t>
+  </si>
+  <si>
+    <t>OutCookInfo.bCookTriMesh = CDP-&gt;GetPhysicsTriMeshData(&amp;OutCookInfo.TriangleMeshDesc, bUsingAllTriData);</t>
+  </si>
+  <si>
+    <t>获取物体碰撞数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool UStaticMesh::GetPhysicsTriMeshData(struct FTriMeshCollisionData* CollisionData, bool bInUseAllTriData)</t>
+  </si>
+  <si>
+    <t>bool bInCheckComplexCollisionMesh = true;</t>
+  </si>
+  <si>
+    <t>return GetPhysicsTriMeshDataCheckComplex(CollisionData, bInUseAllTriData, bInCheckComplexCollisionMesh);</t>
+  </si>
+  <si>
+    <t>静态物体碰撞数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool UBodySetup::RuntimeCookPhysics_PhysX()</t>
+  </si>
+  <si>
+    <t>GetCookInfo(CookHelper.CookInfo, GetRuntimeOnlyCookOptimizationFlags());</t>
+  </si>
+  <si>
+    <t>获取数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UBodySetup::CreatePhysicsMeshes()</t>
+  </si>
+  <si>
+    <t>bClearMeshes = !RuntimeCookPhysics_PhysX();</t>
+  </si>
+  <si>
+    <t>创建碰撞Mesh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(CookHelper.CreatePhysicsMeshes_Concurrent())</t>
+  </si>
+  <si>
+    <t>创建PhysX的TriMesh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const bool bError = !PhysXCookingModule-&gt;GetPhysXCooking()-&gt;CreateTriMesh(FPlatformProperties::GetPhysicsFormat(), CookInfo.TriMeshCookFlags, CookInfo.TriangleMeshDesc.Vertices, CookInfo.TriangleMeshDesc.Indices, CookInfo.TriangleMeshDesc.MaterialIndices, CookInfo.TriangleMeshDesc.bFlipNormals, OutTriangleMeshes[0]);</t>
+  </si>
+  <si>
+    <t>!!!注意这个TriMeshes的创建</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>static void SetHitResultFromShapeAndFaceIndex(const FPhysicsShape&amp; Shape,  const FPhysicsActor&amp; Actor, const uint32 FaceIndex, const FVector&amp; HitLocation, FHitResult&amp; OutResult, bool bReturnPhysMat)</t>
-  </si>
-  <si>
-    <t>// Grab actor/component</t>
-  </si>
-  <si>
-    <t>if( OwningComponent )</t>
-  </si>
-  <si>
-    <t>OutResult.Actor = OwningComponent-&gt;GetOwner();</t>
-  </si>
-  <si>
-    <t>OutResult.Component = OwningComponent;</t>
-  </si>
-  <si>
-    <t>if (bReturnPhysMat)</t>
-  </si>
-  <si>
-    <t>if (const FPhysicsMaterial* PhysicsMaterial = GetMaterialFromInternalFaceIndexAndHitLocation(Shape, Actor, FaceIndex, HitLocation))</t>
-  </si>
-  <si>
-    <t>OutResult.PhysMaterial = GetUserData(*PhysicsMaterial);</t>
-  </si>
-  <si>
-    <t>#else</t>
-  </si>
-  <si>
-    <t>if (const FPhysicsMaterial* PhysicsMaterial = GetMaterialFromInternalFaceIndex(Shape, Actor, FaceIndex))</t>
-  </si>
-  <si>
-    <t>需要计算出TriMeshes，分为编辑器和非编辑器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FPhysicsInterface_PhysX::AddGeometry(const FPhysicsActorHandle&amp; InActor, const FGeometryAddParams&amp; InParams, TArray&lt;FPhysicsShapeHandle_PhysX&gt;* OutOptShapes)</t>
+  </si>
+  <si>
+    <t>创建Shape</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PxShape* PNewShape = GPhysXSDK-&gt;createShape(PGeom, *PMaterial, true, PShapeFlags);</t>
+  </si>
+  <si>
+    <t>FBodyInstance::ApplyMaterialToShape_AssumesLocked(FPhysicsShapeHandle_PhysX(PNewShape), InParams.SimpleMaterial, InParams.ComplexMaterials);</t>
+  </si>
+  <si>
+    <t>设置材质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FBodySetupShapeIterator AddShapesHelper(InParams.Scale, InParams.LocalTransform, InParams.bDoubleSided);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// Create shapes for simple collision if we do not want to use the complex collision mesh </t>
+  </si>
+  <si>
+    <t>// for simple queries as well</t>
+  </si>
+  <si>
+    <t>FKAggregateGeom* AggGeom = InParams.Geometry;</t>
+  </si>
+  <si>
+    <t>check(AggGeom);</t>
+  </si>
+  <si>
+    <t>if (InParams.CollisionTraceType != ECollisionTraceFlag::CTF_UseComplexAsSimple)</t>
+  </si>
+  <si>
+    <t>AddShapesHelper.ForEachShape&lt;FKSphereElem, PxSphereGeometry&gt;(AggGeom-&gt;SphereElems, IterateSimpleShapes);</t>
+  </si>
+  <si>
+    <t>AddShapesHelper.ForEachShape&lt;FKSphylElem, PxCapsuleGeometry&gt;(AggGeom-&gt;SphylElems, IterateSimpleShapes);</t>
+  </si>
+  <si>
+    <t>AddShapesHelper.ForEachShape&lt;FKBoxElem, PxBoxGeometry&gt;(AggGeom-&gt;BoxElems, IterateSimpleShapes);</t>
+  </si>
+  <si>
+    <t>AddShapesHelper.ForEachShape&lt;FKConvexElem, PxConvexMeshGeometry&gt;(AggGeom-&gt;ConvexElems, IterateSimpleShapes);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// Create tri-mesh shape, when we are not using simple collision shapes for </t>
+  </si>
+  <si>
+    <t>// complex queries as well</t>
+  </si>
+  <si>
+    <t>if (InParams.CollisionTraceType != ECollisionTraceFlag::CTF_UseSimpleAsComplex)</t>
+  </si>
+  <si>
+    <t>AddShapesHelper.ForEachShape&lt;PxTriangleMesh*, PxTriangleMeshGeometry&gt;(InParams.TriMeshes, IterateTrimeshes);</t>
+  </si>
+  <si>
+    <t>设置各种信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Find or create cooked physics data</t>
+  </si>
+  <si>
+    <t>static FName PhysicsFormatName(FPlatformProperties::GetPhysicsFormat());</t>
+  </si>
+  <si>
+    <t>FByteBulkData* FormatData = GetCookedData(PhysicsFormatName);</t>
+  </si>
+  <si>
+    <t>// On dedicated servers we may be cooking generic data and sharing it</t>
+  </si>
+  <si>
+    <t>if (FormatData == nullptr &amp;&amp; IsRunningDedicatedServer())</t>
+  </si>
+  <si>
+    <t>FormatData = GetCookedData(FGenericPlatformProperties::GetPhysicsFormat());</t>
+  </si>
+  <si>
+    <t>if (FormatData)</t>
+  </si>
+  <si>
+    <t>#if WITH_PHYSX  &amp;&amp; PHYSICS_INTERFACE_PHYSX</t>
+  </si>
+  <si>
+    <t>bClearMeshes = !ProcessFormatData_PhysX(FormatData);</t>
+  </si>
+  <si>
+    <t>#elif WITH_CHAOS</t>
+  </si>
+  <si>
+    <t>bClearMeshes = !ProcessFormatData_Chaos(FormatData);</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>if (IsRuntime(this))</t>
+  </si>
+  <si>
+    <t>bClearMeshes = !RuntimeCookPhysics_Chaos();</t>
+  </si>
+  <si>
+    <t>加载物理数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！从COOK文件加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！从模型加载</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,23 +728,271 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC74363-AC42-4F25-B1B4-FC24DB3D2835}">
+  <dimension ref="C3:N58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>85</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>50</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D39" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D41" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E43" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D49" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C53" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59DCE1AA-448D-415B-85C1-B4D911E9F3D1}">
   <dimension ref="B3:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -576,12 +1001,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE2FAC2-25A6-4E6A-B2DF-4365AFC77ACD}">
-  <dimension ref="B4:P31"/>
+  <dimension ref="B4:P62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -593,130 +1018,253 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C35" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C38" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E58" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C61" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -725,119 +1273,119 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7BA686-BC67-4AAB-A78E-05B03856B514}">
   <dimension ref="B4:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.2">
       <c r="F17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.2">
       <c r="F18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.2">
       <c r="G19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.2">
       <c r="F20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.2">
       <c r="F22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.2">
       <c r="F23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.2">
       <c r="G24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.2">
       <c r="F25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
